--- a/src/analysis_examples/circadb/results_lomb/cosinor_10556456_tead1_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10556456_tead1_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.27828052859415386, 0.3734708492955583]</t>
+          <t>[0.27605414875453704, 0.3756972291351751]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.924771536072512e-12</v>
+        <v>6.982192601867609e-12</v>
       </c>
       <c r="N2" t="n">
-        <v>2.924771536072512e-12</v>
+        <v>6.982192601867609e-12</v>
       </c>
       <c r="O2" t="n">
         <v>-0.6918422260157699</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.4732914952078725, 0.5235604218557124]</t>
+          <t>[0.47329305274821193, 0.523558864315373]</t>
         </is>
       </c>
       <c r="U2" t="n">
